--- a/PAUA/ENTREGABLES/Matriz de Pruebas ROLES DE USUARIOS Y PERMISOS PLATAFORMAS.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas ROLES DE USUARIOS Y PERMISOS PLATAFORMAS.xlsx
@@ -16,16 +16,13 @@
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PAUA!$G$1:$G$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -120,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="170">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -607,6 +604,30 @@
   </si>
   <si>
     <t>Administrar Roles / SGCM</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Ver Solicitudes</t>
+  </si>
+  <si>
+    <t>Direcciona a la pagina pero no se refleja información del contacto para editar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direcciona a la pagina pero no se refleja información del contacto para eliminar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualiza todas las solicitudes pero te envia a una pantalla en blanco si quieres ver una solicitud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón deshabilitado </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-879</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-803</t>
   </si>
 </sst>
 </file>
@@ -988,8 +1009,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,8 +1063,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5953,23 +5974,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PAUA"/>
-      <sheetName val="GRAFICOS"/>
-      <sheetName val="Datos"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45196.63523634259" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
@@ -7102,13 +7106,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="J54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7412,7 +7416,7 @@
       <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="45" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -7438,7 +7442,7 @@
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="26"/>
       <c r="F12" s="23" t="s">
         <v>59</v>
@@ -7461,7 +7465,7 @@
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="26"/>
       <c r="F13" s="23" t="s">
         <v>60</v>
@@ -7483,7 +7487,7 @@
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="26"/>
       <c r="F14" s="23" t="s">
         <v>62</v>
@@ -7505,7 +7509,7 @@
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="26"/>
       <c r="F15" s="23" t="s">
         <v>61</v>
@@ -7527,7 +7531,7 @@
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="26"/>
       <c r="F16" s="23" t="s">
         <v>57</v>
@@ -7558,7 +7562,7 @@
       <c r="B17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="27" t="s">
         <v>160</v>
       </c>
       <c r="D17" s="26" t="s">
@@ -7586,7 +7590,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="45"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="23" t="s">
@@ -7609,7 +7613,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="23" t="s">
@@ -7637,7 +7641,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="45"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="23" t="s">
@@ -7658,7 +7662,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="45"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="23" t="s">
@@ -7678,7 +7682,7 @@
     <row r="22" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="45"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="23" t="s">
@@ -7706,7 +7710,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="45"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="23" t="s">
@@ -8293,7 +8297,7 @@
       <c r="B47" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="27" t="s">
         <v>161</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -8321,7 +8325,7 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
-      <c r="C48" s="45"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="23" t="s">
@@ -8344,7 +8348,7 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="45"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="23" t="s">
@@ -8367,7 +8371,7 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
-      <c r="C50" s="45"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="23" t="s">
@@ -8388,7 +8392,7 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
-      <c r="C51" s="45"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="23" t="s">
@@ -8409,7 +8413,7 @@
     <row r="52" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
-      <c r="C52" s="45"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="23" t="s">
@@ -8432,7 +8436,7 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
-      <c r="C53" s="45"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="23" t="s">
@@ -8470,7 +8474,7 @@
         <v>94</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>123</v>
@@ -8478,7 +8482,9 @@
       <c r="I54" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="M54" s="25"/>
+      <c r="M54" s="25" t="s">
+        <v>169</v>
+      </c>
       <c r="N54" s="1">
         <v>45180</v>
       </c>
@@ -8571,13 +8577,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>54</v>
@@ -8586,40 +8592,47 @@
         <v>104</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="I59" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="M59" s="25"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="23" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M60" s="25"/>
-      <c r="N60" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="N60" s="1">
+        <v>45201</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="26"/>
@@ -8628,95 +8641,90 @@
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M61" s="25"/>
-      <c r="N61" s="1">
-        <v>45180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="26">
-        <v>15</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>104</v>
-      </c>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="23" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="I62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M62" s="25"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="23" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G63" t="s">
+        <v>162</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I63" t="s">
+        <v>138</v>
+      </c>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="26">
         <v>16</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I63" t="s">
-        <v>69</v>
-      </c>
-      <c r="M63" s="25"/>
-      <c r="N63" s="1">
-        <v>45176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
+      <c r="B64" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>104</v>
+      </c>
       <c r="F64" s="23" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M64" s="25"/>
-      <c r="N64" s="1">
-        <v>45176</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="I64" t="s">
+        <v>139</v>
+      </c>
+      <c r="N64" s="1"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="26"/>
@@ -8725,65 +8733,58 @@
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
       <c r="F65" s="23" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I65" t="s">
-        <v>82</v>
-      </c>
-      <c r="M65" s="25"/>
-      <c r="N65" s="1">
-        <v>45176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
       <c r="F66" s="23" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I66" t="s">
-        <v>74</v>
-      </c>
-      <c r="N66" s="1">
-        <v>45176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
       <c r="F67" s="23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I67" t="s">
-        <v>74</v>
-      </c>
-      <c r="N67" s="1">
-        <v>45176</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="26"/>
@@ -8792,52 +8793,38 @@
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="23" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="I68" t="s">
-        <v>138</v>
-      </c>
-      <c r="N68" s="1">
-        <v>45176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="26">
-        <v>16</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>104</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
       <c r="F69" s="23" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I69" t="s">
-        <v>139</v>
-      </c>
-      <c r="N69" s="1">
-        <v>45176</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="26"/>
@@ -8846,20 +8833,18 @@
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="23" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="I70" t="s">
-        <v>143</v>
-      </c>
-      <c r="N70" s="1">
-        <v>45176</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="26"/>
@@ -8868,158 +8853,42 @@
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="23" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I71" t="s">
-        <v>142</v>
-      </c>
-      <c r="N71" s="1">
-        <v>45176</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I72" t="s">
-        <v>88</v>
-      </c>
-      <c r="N72" s="1">
-        <v>45176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I73" t="s">
-        <v>89</v>
-      </c>
-      <c r="N73" s="1">
-        <v>45176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I74" t="s">
-        <v>149</v>
-      </c>
-      <c r="N74" s="1">
-        <v>45176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I75" t="s">
-        <v>150</v>
-      </c>
-      <c r="N75" s="1">
-        <v>45176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I76" t="s">
         <v>151</v>
       </c>
-      <c r="N76" s="1">
-        <v>45176</v>
-      </c>
+      <c r="N71" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="C69:C76"/>
-    <mergeCell ref="D69:D76"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="E62:E68"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="D47:D53"/>
-    <mergeCell ref="E47:E53"/>
+  <mergeCells count="57">
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="D17:D23"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="E32:E38"/>
     <mergeCell ref="D32:D38"/>
@@ -9036,27 +8905,26 @@
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="E39:E46"/>
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="D47:D53"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="A64:A71"/>
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="C64:C71"/>
+    <mergeCell ref="D64:D71"/>
+    <mergeCell ref="E64:E71"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -9066,9 +8934,10 @@
     <hyperlink ref="M28" r:id="rId5"/>
     <hyperlink ref="M31" r:id="rId6" display="https://paua-sfytgenl.atlassian.net/browse/KPAUA-375"/>
     <hyperlink ref="M8" r:id="rId7"/>
+    <hyperlink ref="M60" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -9076,31 +8945,31 @@
           <x14:formula1>
             <xm:f>Datos!$D$1:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K33:K46 K63:K76</xm:sqref>
+          <xm:sqref>K33:K46 K60:K71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$1:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L33:L46 L68:L76</xm:sqref>
+          <xm:sqref>L33:L46 L64:L71</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$D$2:$D$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>K7:K32 K47:K59</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L7:L32 L47:L63</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G76</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Datos!$D$2:$D$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>K7:K32 K47:K62</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Datos!$C$2:$C$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>L7:L32 L47:L67</xm:sqref>
+          <xm:sqref>G7:G71</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/PAUA/ENTREGABLES/Matriz de Pruebas ROLES DE USUARIOS Y PERMISOS PLATAFORMAS.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas ROLES DE USUARIOS Y PERMISOS PLATAFORMAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\PAUA\ENTREGABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repositorio\All-documents\PAUA\ENTREGABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="169">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -604,9 +604,6 @@
   </si>
   <si>
     <t>Administrar Roles / SGCM</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>Ver Solicitudes</t>
@@ -1009,6 +1006,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,9 +1062,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1165,7 +1162,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1634,7 +1631,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1715,7 +1712,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1796,7 +1793,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1877,7 +1874,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2098,7 +2095,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2228,7 +2225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2274,7 +2271,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2364,7 +2361,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2640,7 +2637,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273448"/>
@@ -2710,7 +2707,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273056"/>
@@ -2752,7 +2749,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2782,7 +2779,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2872,7 +2869,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3747,7 +3744,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099832"/>
@@ -3817,7 +3814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099440"/>
@@ -3859,7 +3856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3889,7 +3886,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7108,11 +7105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="J54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomRight" activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7133,94 +7130,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="35" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -7416,7 +7413,7 @@
       <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="27" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -7442,7 +7439,7 @@
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="45"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="26"/>
       <c r="F12" s="23" t="s">
         <v>59</v>
@@ -7465,7 +7462,7 @@
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="45"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="26"/>
       <c r="F13" s="23" t="s">
         <v>60</v>
@@ -7487,7 +7484,7 @@
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="45"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="26"/>
       <c r="F14" s="23" t="s">
         <v>62</v>
@@ -7509,7 +7506,7 @@
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="26"/>
       <c r="F15" s="23" t="s">
         <v>61</v>
@@ -7531,7 +7528,7 @@
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="45"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="26"/>
       <c r="F16" s="23" t="s">
         <v>57</v>
@@ -7562,7 +7559,7 @@
       <c r="B17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>160</v>
       </c>
       <c r="D17" s="26" t="s">
@@ -7590,7 +7587,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="23" t="s">
@@ -7613,7 +7610,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="23" t="s">
@@ -7641,7 +7638,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="23" t="s">
@@ -7662,7 +7659,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="23" t="s">
@@ -7682,7 +7679,7 @@
     <row r="22" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="23" t="s">
@@ -7710,7 +7707,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="23" t="s">
@@ -8297,7 +8294,7 @@
       <c r="B47" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="28" t="s">
         <v>161</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -8325,7 +8322,7 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
-      <c r="C48" s="27"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="23" t="s">
@@ -8348,7 +8345,7 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="23" t="s">
@@ -8371,7 +8368,7 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
-      <c r="C50" s="27"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="23" t="s">
@@ -8392,7 +8389,7 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
-      <c r="C51" s="27"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="23" t="s">
@@ -8413,7 +8410,7 @@
     <row r="52" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
-      <c r="C52" s="27"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="23" t="s">
@@ -8436,7 +8433,7 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
-      <c r="C53" s="27"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="23" t="s">
@@ -8474,7 +8471,7 @@
         <v>94</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>123</v>
@@ -8482,8 +8479,11 @@
       <c r="I54" s="23" t="s">
         <v>96</v>
       </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
       <c r="M54" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N54" s="1">
         <v>45180</v>
@@ -8616,19 +8616,19 @@
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I60" t="s">
         <v>69</v>
       </c>
       <c r="L60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M60" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N60" s="1">
         <v>45201</v>
@@ -8644,13 +8644,16 @@
         <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I61" t="s">
         <v>70</v>
+      </c>
+      <c r="L61" t="s">
+        <v>27</v>
       </c>
       <c r="M61" s="25"/>
       <c r="N61" s="1"/>
@@ -8662,16 +8665,19 @@
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G62" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I62" t="s">
         <v>82</v>
+      </c>
+      <c r="L62" t="s">
+        <v>27</v>
       </c>
       <c r="M62" s="25"/>
       <c r="N62" s="1"/>
@@ -8686,13 +8692,16 @@
         <v>56</v>
       </c>
       <c r="G63" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I63" t="s">
         <v>138</v>
+      </c>
+      <c r="L63" t="s">
+        <v>27</v>
       </c>
       <c r="N63" s="1"/>
     </row>
@@ -8868,6 +8877,49 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A64:A71"/>
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="C64:C71"/>
+    <mergeCell ref="D64:D71"/>
+    <mergeCell ref="E64:E71"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="D47:D53"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="C24:C28"/>
     <mergeCell ref="E11:E16"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="E29:E31"/>
@@ -8876,55 +8928,12 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="E24:E28"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="E39:E46"/>
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="B39:B46"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="D11:D16"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="C24:C28"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="D47:D53"/>
-    <mergeCell ref="E47:E53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="A64:A71"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="C64:C71"/>
-    <mergeCell ref="D64:D71"/>
-    <mergeCell ref="E64:E71"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
